--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H2">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I2">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J2">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N2">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O2">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P2">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q2">
-        <v>475.9536342531306</v>
+        <v>752.1878741468161</v>
       </c>
       <c r="R2">
-        <v>4283.582708278176</v>
+        <v>6769.690867321345</v>
       </c>
       <c r="S2">
-        <v>0.02311620290819482</v>
+        <v>0.01631515647396932</v>
       </c>
       <c r="T2">
-        <v>0.02311620290819482</v>
+        <v>0.01631515647396932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H3">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I3">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J3">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N3">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O3">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P3">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q3">
-        <v>2.968873621845778</v>
+        <v>1.984847787264</v>
       </c>
       <c r="R3">
-        <v>26.719862596612</v>
+        <v>17.863630085376</v>
       </c>
       <c r="S3">
-        <v>0.0001441927955000647</v>
+        <v>4.305188017415875E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001441927955000647</v>
+        <v>4.305188017415875E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H4">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I4">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J4">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N4">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O4">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P4">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q4">
-        <v>1.848275746010222</v>
+        <v>0.12027330816</v>
       </c>
       <c r="R4">
-        <v>16.634481714092</v>
+        <v>1.08245977344</v>
       </c>
       <c r="S4">
-        <v>8.976739350275571E-05</v>
+        <v>2.608760270827396E-06</v>
       </c>
       <c r="T4">
-        <v>8.976739350275574E-05</v>
+        <v>2.608760270827396E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>3480.380189</v>
       </c>
       <c r="I5">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J5">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N5">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O5">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P5">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q5">
-        <v>18515.63188649384</v>
+        <v>41283.33473977388</v>
       </c>
       <c r="R5">
-        <v>166640.6869784445</v>
+        <v>371550.012657965</v>
       </c>
       <c r="S5">
-        <v>0.8992705861638629</v>
+        <v>0.8954465888068789</v>
       </c>
       <c r="T5">
-        <v>0.899270586163863</v>
+        <v>0.8954465888068791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3480.380189</v>
       </c>
       <c r="I6">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J6">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N6">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O6">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P6">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q6">
-        <v>115.4956431541452</v>
+        <v>108.9370600424296</v>
       </c>
       <c r="R6">
-        <v>1039.460788387307</v>
+        <v>980.4335403818668</v>
       </c>
       <c r="S6">
-        <v>0.005609413459681177</v>
+        <v>0.00236287401258947</v>
       </c>
       <c r="T6">
-        <v>0.005609413459681178</v>
+        <v>0.00236287401258947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>3480.380189</v>
       </c>
       <c r="I7">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J7">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N7">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O7">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P7">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q7">
-        <v>71.90194774237079</v>
+        <v>6.601121091803332</v>
       </c>
       <c r="R7">
-        <v>647.117529681337</v>
+        <v>59.41008982622999</v>
       </c>
       <c r="S7">
-        <v>0.003492146910728481</v>
+        <v>0.0001431800846810373</v>
       </c>
       <c r="T7">
-        <v>0.003492146910728482</v>
+        <v>0.0001431800846810373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H8">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I8">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J8">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N8">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O8">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P8">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q8">
-        <v>1387.563127440016</v>
+        <v>3905.602839793386</v>
       </c>
       <c r="R8">
-        <v>12488.06814696014</v>
+        <v>35150.42555814047</v>
       </c>
       <c r="S8">
-        <v>0.06739141902375717</v>
+        <v>0.08471357176381536</v>
       </c>
       <c r="T8">
-        <v>0.0673914190237572</v>
+        <v>0.08471357176381539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H9">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I9">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J9">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N9">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O9">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P9">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q9">
-        <v>8.655253939108666</v>
+        <v>10.30597197979133</v>
       </c>
       <c r="R9">
-        <v>77.89728545197799</v>
+        <v>92.75374781812201</v>
       </c>
       <c r="S9">
-        <v>0.0004203699517755544</v>
+        <v>0.0002235392928360606</v>
       </c>
       <c r="T9">
-        <v>0.0004203699517755546</v>
+        <v>0.0002235392928360606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H10">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I10">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J10">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N10">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O10">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P10">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q10">
-        <v>5.388338463955334</v>
+        <v>0.6244979346866667</v>
       </c>
       <c r="R10">
-        <v>48.495046175598</v>
+        <v>5.62048141218</v>
       </c>
       <c r="S10">
-        <v>0.0002617018051900777</v>
+        <v>1.354552748359639E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002617018051900778</v>
+        <v>1.354552748359639E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H11">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I11">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J11">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N11">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O11">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P11">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q11">
-        <v>4.162263686346668</v>
+        <v>33.83220803490334</v>
       </c>
       <c r="R11">
-        <v>37.46037317712</v>
+        <v>304.48987231413</v>
       </c>
       <c r="S11">
-        <v>0.0002021535817916021</v>
+        <v>0.0007338296546928806</v>
       </c>
       <c r="T11">
-        <v>0.0002021535817916021</v>
+        <v>0.0007338296546928808</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H12">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I12">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J12">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N12">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O12">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P12">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q12">
-        <v>0.02596310643777779</v>
+        <v>0.08927528023833334</v>
       </c>
       <c r="R12">
-        <v>0.23366795794</v>
+        <v>0.803477522145</v>
       </c>
       <c r="S12">
-        <v>1.260980888368503E-06</v>
+        <v>1.936404741964205E-06</v>
       </c>
       <c r="T12">
-        <v>1.260980888368504E-06</v>
+        <v>1.936404741964205E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H13">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I13">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J13">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N13">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O13">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P13">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q13">
-        <v>0.01616336228222223</v>
+        <v>0.005409701116666666</v>
       </c>
       <c r="R13">
-        <v>0.14547026054</v>
+        <v>0.04868731004999999</v>
       </c>
       <c r="S13">
-        <v>7.850251270395762E-07</v>
+        <v>1.173378662823221E-07</v>
       </c>
       <c r="T13">
-        <v>7.850251270395763E-07</v>
+        <v>1.173378662823221E-07</v>
       </c>
     </row>
   </sheetData>
